--- a/biology/Biologie cellulaire et moléculaire/Dénaturation_de_l'ADN/Dénaturation_de_l'ADN.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Dénaturation_de_l'ADN/Dénaturation_de_l'ADN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9naturation_de_l%27ADN</t>
+          <t>Dénaturation_de_l'ADN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dénaturation de l'ADN, ou fonte de l'ADN, est un processus qui conduit à transformer un double brin d'ADN en deux simples brins, en rompant les liaisons hydrogène entre les bases nucléiques des deux chaînes complémentaires de l'ADN.
 Cette dénaturation peut être réalisée in vitro en soumettant l'ADN à tout agent chimique ou physique capable de déstabiliser les liaisons hydrogène, comme le pH, la température, certains solvants, des concentrations ioniques élevées, des agents alcalins,...
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9naturation_de_l%27ADN</t>
+          <t>Dénaturation_de_l'ADN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Paramètres influençant la dénaturation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La stabilité du duplexe formé par deux chaînes d'ADN associées en double hélice est due à la somme de quatre effets antagonistes :
 La répulsion électrostatique directement liée à la présence de charges négatives tout le long de chaque molécule (phosphate), qui est déstabilisante pour la double hélice d'ADN ;
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9naturation_de_l%27ADN</t>
+          <t>Dénaturation_de_l'ADN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Dénaturation par hausse de la température</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La température à laquelle la moitié des molécules d'ADN est dénaturée est appelée température de fusion moléculaire. On peut suivre ce processus de dénaturation de manière spectroscopique et mesurer la température de fusion, grâce à l'effet hyperchrome. Celui-ci correspond à une augmentation de l'absorption dans l'UV lors du passage duplex → simple brin.
 Lorsque la température retombe, les chaînes complémentaires se réassocient deux par deux avec réapparition des liaisons H. La composition nucléotidique de la chaine a un effet sur la température de fusion : des chaînes contenant beaucoup de bases C et G (impliquant 3 liaisons H entre les nucléotides en vis-à-vis sur les deux brins) seront plus difficiles à dénaturer que des chaines contenant plus de bases A et T (2 liaisons).
